--- a/data/TestLocation/input_data/preexisting_capacities.xlsx
+++ b/data/TestLocation/input_data/preexisting_capacities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70b0e526faaa1b23/Dokumente/Alles zum Studium/Master/Masterarbeit/Leelo/data/TestLocation/input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B99211E-C818-4284-A81A-DE59EC757D01}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_AD4DB114E441178AC67DF47F8ED2CE42693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{175F8726-03E0-4F8F-A4EE-B8236A696F09}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="79">
   <si>
     <t>Existence of Capacities built before 2020 (MW)/(MWh)</t>
   </si>
@@ -196,9 +196,6 @@
     <t>technology_name</t>
   </si>
   <si>
-    <t>technology_abreviation</t>
-  </si>
-  <si>
     <t>y2020</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>H2 compressor</t>
+  </si>
+  <si>
+    <t>abreviation</t>
   </si>
 </sst>
 </file>
@@ -279,12 +279,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,7 +318,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -595,11 +601,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160:K200"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -612,28 +624,28 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -669,6 +681,12 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
@@ -695,6 +713,12 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -721,6 +745,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -747,6 +777,12 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -773,6 +809,12 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -802,6 +844,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -828,6 +876,12 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
@@ -857,6 +911,12 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -886,6 +946,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -915,6 +981,12 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
@@ -941,6 +1013,9 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -970,6 +1045,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
@@ -996,6 +1077,12 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
@@ -1022,6 +1109,12 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1172,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
@@ -1099,7 +1204,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
@@ -1125,12 +1236,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1157,9 +1271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -1186,9 +1306,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1215,9 +1341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -1244,9 +1376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1273,9 +1411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -1302,9 +1446,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
@@ -1331,9 +1481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -1360,9 +1516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -1389,9 +1551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>32</v>
@@ -1418,9 +1586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -1447,9 +1621,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -1476,9 +1656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1506,8 +1692,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -1535,8 +1727,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
         <v>37</v>
@@ -1564,8 +1762,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -1593,8 +1797,14 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
         <v>39</v>
@@ -1622,8 +1832,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -1651,6 +1867,9 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
@@ -1680,6 +1899,12 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" t="s">
         <v>43</v>
       </c>
@@ -1738,6 +1963,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" t="s">
         <v>4</v>
       </c>
@@ -1764,6 +1995,12 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
@@ -1790,6 +2027,12 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
@@ -1816,6 +2059,12 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
@@ -1842,6 +2091,12 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
@@ -1868,6 +2123,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
@@ -1894,6 +2155,12 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
@@ -1920,6 +2187,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
@@ -1945,7 +2218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +2250,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +2282,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
@@ -2026,7 +2314,13 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2346,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2378,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
       <c r="D54" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2410,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2442,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
       <c r="D56" t="s">
         <v>20</v>
       </c>
@@ -2156,7 +2474,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
       <c r="D57" t="s">
         <v>21</v>
       </c>
@@ -2182,12 +2506,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
       <c r="B58" t="s">
         <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2214,9 +2541,15 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -2243,9 +2576,15 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
         <v>25</v>
@@ -2272,9 +2611,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
@@ -2301,9 +2646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -2330,9 +2681,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
@@ -2359,9 +2716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -2389,8 +2752,14 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
         <v>30</v>
@@ -2418,8 +2787,14 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>31</v>
@@ -2447,8 +2822,14 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
         <v>32</v>
@@ -2476,8 +2857,14 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -2505,8 +2892,14 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
@@ -2534,8 +2927,14 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -2563,8 +2962,14 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" t="s">
         <v>36</v>
@@ -2592,8 +2997,14 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D72" t="s">
         <v>37</v>
@@ -2621,8 +3032,14 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
         <v>38</v>
@@ -2650,8 +3067,14 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" t="s">
         <v>39</v>
@@ -2679,8 +3102,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
         <v>40</v>
@@ -2708,6 +3137,9 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
       <c r="B76" t="s">
         <v>41</v>
       </c>
@@ -2737,6 +3169,12 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
       <c r="D77" t="s">
         <v>43</v>
       </c>
@@ -2795,6 +3233,12 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
       <c r="D79" t="s">
         <v>4</v>
       </c>
@@ -2821,6 +3265,12 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
       <c r="D80" t="s">
         <v>5</v>
       </c>
@@ -2846,7 +3296,13 @@
         <v>26.033329999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
@@ -2872,7 +3328,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
@@ -2898,7 +3360,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +3392,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
       <c r="D84" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +3424,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
@@ -2976,7 +3456,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3488,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
       <c r="D87" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3520,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
@@ -3054,7 +3552,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
       <c r="B89" t="s">
         <v>14</v>
       </c>
@@ -3083,7 +3584,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
       <c r="D90" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3616,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
@@ -3135,7 +3648,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
       <c r="D92" t="s">
         <v>18</v>
       </c>
@@ -3161,7 +3680,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" t="s">
         <v>19</v>
       </c>
@@ -3187,7 +3712,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" t="s">
         <v>20</v>
       </c>
@@ -3213,7 +3744,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" t="s">
         <v>21</v>
       </c>
@@ -3239,12 +3776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>45</v>
+      </c>
       <c r="B96" t="s">
         <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
         <v>23</v>
@@ -3271,9 +3811,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
       <c r="C97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -3300,9 +3846,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D98" t="s">
         <v>25</v>
@@ -3329,9 +3881,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" t="s">
+        <v>22</v>
+      </c>
       <c r="C99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
@@ -3358,9 +3916,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
@@ -3387,9 +3951,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
       <c r="C101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
         <v>28</v>
@@ -3416,9 +3986,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
       <c r="C102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
@@ -3445,9 +4021,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D103" t="s">
         <v>30</v>
@@ -3474,9 +4056,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -3503,9 +4091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
       <c r="C105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" t="s">
         <v>32</v>
@@ -3532,9 +4126,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
         <v>33</v>
@@ -3561,9 +4161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
       <c r="C107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D107" t="s">
         <v>34</v>
@@ -3590,9 +4196,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D108" t="s">
         <v>35</v>
@@ -3619,9 +4231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
       <c r="C109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D109" t="s">
         <v>36</v>
@@ -3648,9 +4266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
       <c r="C110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D110" t="s">
         <v>37</v>
@@ -3677,9 +4301,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
       <c r="C111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D111" t="s">
         <v>38</v>
@@ -3706,9 +4336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D112" t="s">
         <v>39</v>
@@ -3736,8 +4372,14 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
@@ -3765,6 +4407,9 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>45</v>
+      </c>
       <c r="B114" t="s">
         <v>41</v>
       </c>
@@ -3794,6 +4439,12 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>41</v>
+      </c>
       <c r="D115" t="s">
         <v>43</v>
       </c>
@@ -3852,6 +4503,12 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
       <c r="D117" t="s">
         <v>4</v>
       </c>
@@ -3878,6 +4535,12 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
       <c r="D118" t="s">
         <v>5</v>
       </c>
@@ -3904,6 +4567,12 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
       <c r="D119" t="s">
         <v>6</v>
       </c>
@@ -3930,6 +4599,12 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
@@ -3956,6 +4631,12 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
@@ -3982,6 +4663,12 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" t="s">
         <v>9</v>
       </c>
@@ -4008,6 +4695,12 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
@@ -4034,6 +4727,12 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
       <c r="D124" t="s">
         <v>11</v>
       </c>
@@ -4060,6 +4759,12 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
       <c r="D125" t="s">
         <v>12</v>
       </c>
@@ -4086,6 +4791,12 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
       <c r="D126" t="s">
         <v>13</v>
       </c>
@@ -4112,6 +4823,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>46</v>
+      </c>
       <c r="B127" t="s">
         <v>14</v>
       </c>
@@ -4141,6 +4855,12 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
       <c r="D128" t="s">
         <v>16</v>
       </c>
@@ -4166,7 +4886,13 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
@@ -4192,7 +4918,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
@@ -4218,7 +4950,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>46</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
       <c r="D131" t="s">
         <v>19</v>
       </c>
@@ -4244,7 +4982,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
       <c r="D132" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +5014,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
       <c r="D133" t="s">
         <v>21</v>
       </c>
@@ -4296,12 +5046,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>46</v>
+      </c>
       <c r="B134" t="s">
         <v>22</v>
       </c>
       <c r="C134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
@@ -4328,9 +5081,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>46</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
       <c r="C135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -4357,9 +5116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>46</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
       <c r="C136" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -4386,9 +5151,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>22</v>
+      </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D137" t="s">
         <v>26</v>
@@ -4415,9 +5186,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
@@ -4444,9 +5221,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -4473,9 +5256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D140" t="s">
         <v>29</v>
@@ -4502,9 +5291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
       <c r="C141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D141" t="s">
         <v>30</v>
@@ -4531,9 +5326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>46</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
       <c r="C142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D142" t="s">
         <v>31</v>
@@ -4560,9 +5361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>46</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D143" t="s">
         <v>32</v>
@@ -4589,9 +5396,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B144" t="s">
+        <v>22</v>
+      </c>
       <c r="C144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D144" t="s">
         <v>33</v>
@@ -4618,9 +5431,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
       <c r="C145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D145" t="s">
         <v>34</v>
@@ -4647,9 +5466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
       <c r="C146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D146" t="s">
         <v>35</v>
@@ -4676,9 +5501,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" t="s">
+        <v>22</v>
+      </c>
       <c r="C147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D147" t="s">
         <v>36</v>
@@ -4705,9 +5536,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
       <c r="C148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D148" t="s">
         <v>37</v>
@@ -4734,9 +5571,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>46</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
       <c r="C149" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D149" t="s">
         <v>38</v>
@@ -4763,9 +5606,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
       <c r="C150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D150" t="s">
         <v>39</v>
@@ -4792,9 +5641,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>46</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
       <c r="C151" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D151" t="s">
         <v>40</v>
@@ -4821,7 +5676,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>46</v>
+      </c>
       <c r="B152" t="s">
         <v>41</v>
       </c>
@@ -4850,7 +5708,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>46</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
       <c r="D153" t="s">
         <v>43</v>
       </c>
@@ -4876,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -4885,7 +5749,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -4894,7 +5758,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -4903,7 +5767,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -4912,7 +5776,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -4921,7 +5785,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -4931,6 +5795,7 @@
       <c r="K159" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>